--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,54 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>HivKeyPopulation</t>
+  </si>
+  <si>
+    <t>Patient Key Population Status</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE50</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HivStatusObservation</t>
+  </si>
+  <si>
+    <t>HIV Status Observation</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE115</t>
+  </si>
+  <si>
+    <t>HivTest</t>
+  </si>
+  <si>
+    <t>HIV Test</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE81</t>
+  </si>
+  <si>
+    <t>dateTime, instant</t>
   </si>
 </sst>
 </file>
@@ -178,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +267,111 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Profile</t>
   </si>
@@ -45,54 +45,6 @@
   </si>
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>HivKeyPopulation</t>
-  </si>
-  <si>
-    <t>Patient Key Population Status</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE50</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>HivStatusObservation</t>
-  </si>
-  <si>
-    <t>HIV Status Observation</t>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE115</t>
-  </si>
-  <si>
-    <t>HivTest</t>
-  </si>
-  <si>
-    <t>HIV Test</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE81</t>
-  </si>
-  <si>
-    <t>dateTime, instant</t>
   </si>
 </sst>
 </file>
@@ -226,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,111 +219,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Profile</t>
   </si>
@@ -47,6 +47,66 @@
     <t>Method</t>
   </si>
   <si>
+    <t>HivGonorhoeaTest</t>
+  </si>
+  <si>
+    <t>Gonorrhoea Test</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE256</t>
+  </si>
+  <si>
+    <t>dateTime, instant</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HivHBsAgTest</t>
+  </si>
+  <si>
+    <t>HBsAg Test</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE162</t>
+  </si>
+  <si>
+    <t>HivHcvTest</t>
+  </si>
+  <si>
+    <t>HCV Test</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE170</t>
+  </si>
+  <si>
+    <t>HivHcvViralLoadTest</t>
+  </si>
+  <si>
+    <t>HCV Viral Load Test</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE179</t>
+  </si>
+  <si>
+    <t>HivHivTest</t>
+  </si>
+  <si>
+    <t>HIV Test</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE81</t>
+  </si>
+  <si>
     <t>HivKeyPopulation</t>
   </si>
   <si>
@@ -56,19 +116,25 @@
     <t>Observation Category Codes#social-history</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE50</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>optional</t>
+    <t>HivLabTestObservation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>HivPreventionIntervention</t>
+  </si>
+  <si>
+    <t>HIV Prevention Intervention</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.PRV.DE2</t>
   </si>
   <si>
     <t>HivStatusObservation</t>
@@ -78,21 +144,6 @@
   </si>
   <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE115</t>
-  </si>
-  <si>
-    <t>HivTest</t>
-  </si>
-  <si>
-    <t>HIV Test</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE81</t>
-  </si>
-  <si>
-    <t>dateTime, instant</t>
   </si>
 </sst>
 </file>
@@ -226,7 +277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,7 +361,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
@@ -345,30 +396,240 @@
         <v>23</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
+      <c r="B5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
   <si>
     <t>Profile</t>
   </si>
@@ -47,36 +47,69 @@
     <t>Method</t>
   </si>
   <si>
+    <t>ChildDeliveryObservation</t>
+  </si>
+  <si>
+    <t>Child Delivery Observation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.E.DE48</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HcvViralLoadTest</t>
+  </si>
+  <si>
+    <t>Hepatitis C Viral Load Result</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.G.DE48</t>
+  </si>
+  <si>
+    <t>dateTime, instant</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>HcvViralLoadTestG</t>
+  </si>
+  <si>
     <t>HivGonorhoeaTest</t>
   </si>
   <si>
     <t>Gonorrhoea Test</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE256</t>
   </si>
   <si>
-    <t>dateTime, instant</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>HivHBsAgTest</t>
   </si>
   <si>
     <t>HBsAg Test</t>
   </si>
   <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.G.DE18</t>
+  </si>
+  <si>
+    <t>HivHBsAgTestD</t>
+  </si>
+  <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE162</t>
   </si>
   <si>
@@ -89,6 +122,12 @@
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE170</t>
   </si>
   <si>
+    <t>HivHcvTestD</t>
+  </si>
+  <si>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.G.DE43</t>
+  </si>
+  <si>
     <t>HivHcvViralLoadTest</t>
   </si>
   <si>
@@ -96,6 +135,9 @@
   </si>
   <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE179</t>
+  </si>
+  <si>
+    <t>HivHcvViralLoadTestD</t>
   </si>
   <si>
     <t>HivHivTest</t>
@@ -277,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,98 +371,98 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -431,31 +473,31 @@
         <v>26</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
         <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -466,31 +508,31 @@
         <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -498,139 +540,349 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
+      <c r="B12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>14</v>
+      <c r="C12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Profile</t>
   </si>
@@ -47,69 +47,36 @@
     <t>Method</t>
   </si>
   <si>
-    <t>ChildDeliveryObservation</t>
-  </si>
-  <si>
-    <t>Child Delivery Observation</t>
+    <t>HivGonorhoeaTest</t>
+  </si>
+  <si>
+    <t>Gonorrhoea Test</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.E.DE48</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
+    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE256</t>
+  </si>
+  <si>
+    <t>dateTime, instant</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
   </si>
   <si>
     <t>optional</t>
   </si>
   <si>
-    <t>HcvViralLoadTest</t>
-  </si>
-  <si>
-    <t>Hepatitis C Viral Load Result</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.G.DE48</t>
-  </si>
-  <si>
-    <t>dateTime, instant</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>HcvViralLoadTestG</t>
-  </si>
-  <si>
-    <t>HivGonorhoeaTest</t>
-  </si>
-  <si>
-    <t>Gonorrhoea Test</t>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.B.DE256</t>
-  </si>
-  <si>
     <t>HivHBsAgTest</t>
   </si>
   <si>
     <t>HBsAg Test</t>
   </si>
   <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.G.DE18</t>
-  </si>
-  <si>
-    <t>HivHBsAgTestD</t>
-  </si>
-  <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE162</t>
   </si>
   <si>
@@ -122,12 +89,6 @@
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE170</t>
   </si>
   <si>
-    <t>HivHcvTestD</t>
-  </si>
-  <si>
-    <t>WHO SMART HIV Concepts CodeSystem#HIV.G.DE43</t>
-  </si>
-  <si>
     <t>HivHcvViralLoadTest</t>
   </si>
   <si>
@@ -135,9 +96,6 @@
   </si>
   <si>
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE179</t>
-  </si>
-  <si>
-    <t>HivHcvViralLoadTestD</t>
   </si>
   <si>
     <t>HivHivTest</t>
@@ -319,7 +277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,98 +329,98 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="F4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -473,31 +431,31 @@
         <v>26</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
         <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -508,31 +466,31 @@
         <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -540,349 +498,139 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
   <si>
     <t>Profile</t>
   </si>
@@ -86,9 +86,6 @@
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>HcvViralLoadTestG</t>
-  </si>
-  <si>
     <t>HivGonorhoeaTest</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>WHO SMART HIV Concepts CodeSystem#HIV.D.DE179</t>
   </si>
   <si>
-    <t>HivHcvViralLoadTestD</t>
-  </si>
-  <si>
     <t>HivHivTest</t>
   </si>
   <si>
@@ -165,6 +159,9 @@
   </si>
   <si>
     <t>HivLabTestObservation</t>
+  </si>
+  <si>
+    <t>Hiv Lab Test Observation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
@@ -319,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -435,7 +432,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>20</v>
@@ -444,7 +441,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>13</v>
@@ -467,10 +464,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>20</v>
@@ -479,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>13</v>
@@ -502,10 +499,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>20</v>
@@ -514,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>13</v>
@@ -537,10 +534,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>20</v>
@@ -549,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>13</v>
@@ -572,10 +569,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>20</v>
@@ -584,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>13</v>
@@ -607,10 +604,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>20</v>
@@ -619,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>13</v>
@@ -642,10 +639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>20</v>
@@ -654,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
@@ -677,25 +674,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>23</v>
@@ -712,10 +709,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>20</v>
@@ -724,10 +721,10 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>22</v>
@@ -747,25 +744,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>23</v>
@@ -782,25 +779,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>23</v>
@@ -812,76 +809,6 @@
         <v>13</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s" s="2">
         <v>13</v>
       </c>
     </row>
